--- a/Export_format/出口長委登記表.xlsx
+++ b/Export_format/出口長委登記表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11915" uniqueCount="8690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11978" uniqueCount="8739">
   <si>
     <t>麒安科技有限公司</t>
   </si>
@@ -30568,56 +30568,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>台灣莫仕股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>114業二04663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0266251769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅華精密工業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0424933311#316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中積體電路股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sino-logistics@sinopowersemi.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浤議科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035532168#202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元佳宇股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>076218118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御豹企業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0282619777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權億科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04669</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034529998#343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉島國際貿易商行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114業二04670</t>
-  </si>
-  <si>
-    <t>台灣莫仕股份有限公司</t>
-  </si>
-  <si>
-    <t>梅華精密工業股份有限公司</t>
-  </si>
-  <si>
-    <t>大中積體電路股份有限公司</t>
-  </si>
-  <si>
-    <t>浤議科技股份有限公司</t>
-  </si>
-  <si>
-    <t>元佳宇股份有限公司</t>
-  </si>
-  <si>
-    <t>御豹企業股份有限公司</t>
-  </si>
-  <si>
-    <t>吉島國際貿易商行</t>
-  </si>
-  <si>
-    <t>119.03.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0222662287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣電鏡儀器股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.03.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036669600#32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥峰實業股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>062422777#106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智通科創股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0226271828#104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠宇材料科學股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0423280322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞利光智能股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0978438734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠星電子股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036580011#289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英商橘光有限公司台灣分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114業二04677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.03.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0422086880#35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -30750,7 +30961,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -30853,15 +31064,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -31510,11 +31728,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:J2116"/>
+  <dimension ref="A1:J2123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1892" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1905" sqref="A1905"/>
+      <pane ySplit="1" topLeftCell="A2105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2123" sqref="F2117:F2123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -72263,268 +72481,499 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="2109" spans="1:9" ht="21.95" customHeight="1">
-      <c r="A2109" s="34" t="s">
+    <row r="2109" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2109" s="12" t="s">
+        <v>8673</v>
+      </c>
+      <c r="B2109" s="7">
+        <v>35928595</v>
+      </c>
+      <c r="C2109" s="6" t="s">
+        <v>8674</v>
+      </c>
+      <c r="D2109" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2109" s="6" t="s">
+        <v>8676</v>
+      </c>
+      <c r="G2109" s="6" t="s">
+        <v>8677</v>
+      </c>
+      <c r="H2109" s="6" t="s">
+        <v>8678</v>
+      </c>
+      <c r="I2109" s="32" t="s">
+        <v>8679</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2110" s="12" t="s">
+        <v>8680</v>
+      </c>
+      <c r="B2110" s="7">
+        <v>57132939</v>
+      </c>
+      <c r="C2110" s="6" t="s">
         <v>8681</v>
       </c>
-      <c r="B2109" s="34">
-        <v>35928595</v>
-      </c>
-      <c r="C2109" s="34" t="s">
-        <v>8673</v>
-      </c>
-      <c r="D2109" s="34" t="s">
+      <c r="D2110" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2110" s="6" t="s">
+        <v>8676</v>
+      </c>
+      <c r="G2110" s="6" t="s">
+        <v>8677</v>
+      </c>
+      <c r="H2110" s="6" t="s">
+        <v>8682</v>
+      </c>
+      <c r="I2110" s="32" t="s">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2111" s="12" t="s">
+        <v>8684</v>
+      </c>
+      <c r="B2111" s="7">
+        <v>28112723</v>
+      </c>
+      <c r="C2111" s="6" t="s">
+        <v>8685</v>
+      </c>
+      <c r="D2111" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2111" s="6" t="s">
+        <v>8676</v>
+      </c>
+      <c r="G2111" s="6" t="s">
+        <v>8686</v>
+      </c>
+      <c r="H2111" s="6" t="s">
+        <v>8687</v>
+      </c>
+      <c r="I2111" s="32" t="s">
         <v>8688</v>
       </c>
-      <c r="F2109" s="1" t="s">
+    </row>
+    <row r="2112" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2112" s="12" t="s">
         <v>8689</v>
       </c>
-      <c r="G2109" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2110" spans="1:9" ht="21.95" customHeight="1">
-      <c r="A2110" s="34" t="s">
-        <v>8682</v>
-      </c>
-      <c r="B2110" s="34">
-        <v>57132939</v>
-      </c>
-      <c r="C2110" s="34" t="s">
-        <v>8674</v>
-      </c>
-      <c r="D2110" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2110" s="1" t="s">
-        <v>8689</v>
-      </c>
-      <c r="G2110" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2111" spans="1:9" ht="21.95" customHeight="1">
-      <c r="A2111" s="34" t="s">
-        <v>8683</v>
-      </c>
-      <c r="B2111" s="34">
-        <v>28112723</v>
-      </c>
-      <c r="C2111" s="34" t="s">
+      <c r="B2112" s="7">
+        <v>90784186</v>
+      </c>
+      <c r="C2112" s="6" t="s">
+        <v>8690</v>
+      </c>
+      <c r="D2112" s="6" t="s">
         <v>8675</v>
       </c>
-      <c r="D2111" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2111" s="1" t="s">
-        <v>8689</v>
-      </c>
-      <c r="G2111" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2112" spans="1:9" ht="21.95" customHeight="1">
-      <c r="A2112" s="34" t="s">
-        <v>8684</v>
-      </c>
-      <c r="B2112" s="34">
-        <v>90784186</v>
-      </c>
-      <c r="C2112" s="34" t="s">
+      <c r="F2112" s="6" t="s">
         <v>8676</v>
       </c>
-      <c r="D2112" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2112" s="1" t="s">
-        <v>8689</v>
-      </c>
       <c r="G2112" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2113" s="34" t="s">
-        <v>8685</v>
-      </c>
-      <c r="B2113" s="34">
+        <v>8677</v>
+      </c>
+      <c r="H2112" s="6" t="s">
+        <v>8691</v>
+      </c>
+      <c r="I2112" s="32" t="s">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2113" s="12" t="s">
+        <v>8693</v>
+      </c>
+      <c r="B2113" s="7">
         <v>28877776</v>
       </c>
-      <c r="C2113" s="34" t="s">
+      <c r="C2113" s="6" t="s">
+        <v>8694</v>
+      </c>
+      <c r="D2113" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2113" s="6" t="s">
+        <v>8676</v>
+      </c>
+      <c r="G2113" s="6" t="s">
         <v>8677</v>
       </c>
-      <c r="D2113" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2113" s="1" t="s">
-        <v>8689</v>
-      </c>
-      <c r="G2113" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2114" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2114" s="34" t="s">
-        <v>8686</v>
-      </c>
-      <c r="B2114" s="34">
+      <c r="H2113" s="6" t="s">
+        <v>8695</v>
+      </c>
+      <c r="I2113" s="32"/>
+    </row>
+    <row r="2114" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2114" s="12" t="s">
+        <v>8696</v>
+      </c>
+      <c r="B2114" s="7">
         <v>16541523</v>
       </c>
-      <c r="C2114" s="34" t="s">
-        <v>8678</v>
-      </c>
-      <c r="D2114" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2114" s="1" t="s">
-        <v>8689</v>
+      <c r="C2114" s="6" t="s">
+        <v>8697</v>
+      </c>
+      <c r="D2114" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2114" s="6" t="s">
+        <v>8676</v>
       </c>
       <c r="G2114" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2115" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2115" s="34">
+        <v>8677</v>
+      </c>
+      <c r="H2114" s="6" t="s">
+        <v>8698</v>
+      </c>
+      <c r="I2114" s="32" t="s">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2115" s="12" t="s">
+        <v>8699</v>
+      </c>
+      <c r="B2115" s="7">
         <v>12733681</v>
       </c>
-      <c r="C2115" s="34" t="s">
-        <v>8679</v>
-      </c>
-      <c r="D2115" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2115" s="1" t="s">
-        <v>8689</v>
+      <c r="C2115" s="6" t="s">
+        <v>8700</v>
+      </c>
+      <c r="D2115" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2115" s="6" t="s">
+        <v>8676</v>
       </c>
       <c r="G2115" s="6" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="2116" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2116" s="34" t="s">
-        <v>8687</v>
-      </c>
-      <c r="B2116" s="34">
+        <v>8677</v>
+      </c>
+      <c r="H2115" s="6" t="s">
+        <v>8701</v>
+      </c>
+      <c r="I2115" s="32" t="s">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2116" s="12" t="s">
+        <v>8703</v>
+      </c>
+      <c r="B2116" s="7">
         <v>34783798</v>
       </c>
-      <c r="C2116" s="34" t="s">
-        <v>8680</v>
-      </c>
-      <c r="D2116" s="34" t="s">
-        <v>8688</v>
-      </c>
-      <c r="F2116" s="1" t="s">
-        <v>8689</v>
+      <c r="C2116" s="6" t="s">
+        <v>8704</v>
+      </c>
+      <c r="D2116" s="6" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F2116" s="6" t="s">
+        <v>8676</v>
       </c>
       <c r="G2116" s="6" t="s">
-        <v>3798</v>
+        <v>8677</v>
+      </c>
+      <c r="H2116" s="6" t="s">
+        <v>8705</v>
+      </c>
+      <c r="I2116" s="32"/>
+    </row>
+    <row r="2117" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2117" s="12" t="s">
+        <v>8712</v>
+      </c>
+      <c r="B2117" s="7">
+        <v>54503893</v>
+      </c>
+      <c r="C2117" s="6" t="s">
+        <v>8713</v>
+      </c>
+      <c r="D2117" s="6" t="s">
+        <v>8714</v>
+      </c>
+      <c r="F2117" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2117" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2117" s="6" t="s">
+        <v>8717</v>
+      </c>
+      <c r="I2117" s="32" t="s">
+        <v>8706</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2118" s="12" t="s">
+        <v>8718</v>
+      </c>
+      <c r="B2118" s="7">
+        <v>13004319</v>
+      </c>
+      <c r="C2118" s="6" t="s">
+        <v>8719</v>
+      </c>
+      <c r="D2118" s="6" t="s">
+        <v>8720</v>
+      </c>
+      <c r="F2118" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2118" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2118" s="6" t="s">
+        <v>8721</v>
+      </c>
+      <c r="I2118" s="32" t="s">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2119" s="12" t="s">
+        <v>8722</v>
+      </c>
+      <c r="B2119" s="7">
+        <v>35892013</v>
+      </c>
+      <c r="C2119" s="6" t="s">
+        <v>8723</v>
+      </c>
+      <c r="D2119" s="6" t="s">
+        <v>8724</v>
+      </c>
+      <c r="F2119" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2119" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2119" s="6" t="s">
+        <v>8725</v>
+      </c>
+      <c r="I2119" s="32" t="s">
+        <v>8708</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2120" s="12" t="s">
+        <v>8726</v>
+      </c>
+      <c r="B2120" s="7">
+        <v>54138621</v>
+      </c>
+      <c r="C2120" s="6" t="s">
+        <v>8727</v>
+      </c>
+      <c r="D2120" s="6" t="s">
+        <v>8720</v>
+      </c>
+      <c r="F2120" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2120" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2120" s="6" t="s">
+        <v>8728</v>
+      </c>
+      <c r="I2120" s="32" t="s">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2121" s="12" t="s">
+        <v>8729</v>
+      </c>
+      <c r="B2121" s="7">
+        <v>96770218</v>
+      </c>
+      <c r="C2121" s="6" t="s">
+        <v>8730</v>
+      </c>
+      <c r="D2121" s="6" t="s">
+        <v>8720</v>
+      </c>
+      <c r="F2121" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2121" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2121" s="6" t="s">
+        <v>8731</v>
+      </c>
+      <c r="I2121" s="32" t="s">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2122" s="12" t="s">
+        <v>8732</v>
+      </c>
+      <c r="B2122" s="7">
+        <v>79962796</v>
+      </c>
+      <c r="C2122" s="6" t="s">
+        <v>8733</v>
+      </c>
+      <c r="D2122" s="6" t="s">
+        <v>8720</v>
+      </c>
+      <c r="F2122" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2122" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2122" s="6" t="s">
+        <v>8734</v>
+      </c>
+      <c r="I2122" s="32" t="s">
+        <v>8711</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2123" s="12" t="s">
+        <v>8735</v>
+      </c>
+      <c r="B2123" s="7">
+        <v>54398652</v>
+      </c>
+      <c r="C2123" s="6" t="s">
+        <v>8736</v>
+      </c>
+      <c r="D2123" s="6" t="s">
+        <v>8737</v>
+      </c>
+      <c r="F2123" s="6" t="s">
+        <v>8715</v>
+      </c>
+      <c r="G2123" s="6" t="s">
+        <v>8716</v>
+      </c>
+      <c r="H2123" s="6" t="s">
+        <v>8738</v>
+      </c>
+      <c r="I2123" s="32" t="s">
+        <v>8709</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2022:A2033">
-    <cfRule type="duplicateValues" dxfId="34" priority="74" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="81" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2068:A2075">
-    <cfRule type="duplicateValues" dxfId="33" priority="65" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="72" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2068:B2075">
-    <cfRule type="duplicateValues" dxfId="32" priority="64" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="71" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2076:A2086">
-    <cfRule type="duplicateValues" dxfId="31" priority="48" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="55" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2076:B2086">
-    <cfRule type="duplicateValues" dxfId="30" priority="47" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="54" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2108">
-    <cfRule type="duplicateValues" dxfId="29" priority="37" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="44" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2108">
-    <cfRule type="duplicateValues" dxfId="28" priority="35" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="36" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="43" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2087">
-    <cfRule type="duplicateValues" dxfId="26" priority="34" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="41" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2087">
-    <cfRule type="duplicateValues" dxfId="25" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="40" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2088">
-    <cfRule type="duplicateValues" dxfId="24" priority="32" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="39" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2088">
-    <cfRule type="duplicateValues" dxfId="23" priority="31" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="38" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2089">
-    <cfRule type="duplicateValues" dxfId="22" priority="30" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2089">
-    <cfRule type="duplicateValues" dxfId="21" priority="29" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="36" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2090">
-    <cfRule type="duplicateValues" dxfId="20" priority="28" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="35" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2090">
-    <cfRule type="duplicateValues" dxfId="19" priority="27" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="34" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2091">
-    <cfRule type="duplicateValues" dxfId="18" priority="26" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="33" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2091">
-    <cfRule type="duplicateValues" dxfId="17" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2092">
-    <cfRule type="duplicateValues" dxfId="16" priority="24" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="31" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2092">
-    <cfRule type="duplicateValues" dxfId="15" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="30" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2093">
-    <cfRule type="duplicateValues" dxfId="14" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="29" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2093">
-    <cfRule type="duplicateValues" dxfId="13" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="28" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2094">
-    <cfRule type="duplicateValues" dxfId="12" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2094">
-    <cfRule type="duplicateValues" dxfId="11" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2095">
-    <cfRule type="duplicateValues" dxfId="10" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2095">
-    <cfRule type="duplicateValues" dxfId="9" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2096:A2099">
-    <cfRule type="duplicateValues" dxfId="8" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2096:B2099">
+    <cfRule type="duplicateValues" dxfId="8" priority="19" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2100:A2107">
     <cfRule type="duplicateValues" dxfId="7" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2100:A2107">
-    <cfRule type="duplicateValues" dxfId="6" priority="5" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B2100:B2107">
+    <cfRule type="duplicateValues" dxfId="6" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2100:B2107">
-    <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A2124:A65536 A2034:A2067 A1:A2021">
+    <cfRule type="duplicateValues" dxfId="5" priority="82" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2117:A65536 A2034:A2067 A1:A2021">
-    <cfRule type="duplicateValues" dxfId="4" priority="75" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B2124:B65536 B1:B2067">
+    <cfRule type="duplicateValues" dxfId="4" priority="87" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2117:B65536 B1:B2067">
-    <cfRule type="duplicateValues" dxfId="3" priority="80" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A2109:A2116">
+    <cfRule type="duplicateValues" dxfId="3" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2109:B2116">
-    <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2109:B2116">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A2117:A2123">
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2117:B2123">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1190:G1200 G314:G674 G676:G703 G251:G312 G705:G1187 G2:G249">
@@ -72539,9 +72988,10 @@
     <hyperlink ref="H2088" r:id="rId5"/>
     <hyperlink ref="H2090" r:id="rId6"/>
     <hyperlink ref="H2100" r:id="rId7"/>
+    <hyperlink ref="H2111" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
